--- a/biology/Médecine/Utérus_artificiel/Utérus_artificiel.xlsx
+++ b/biology/Médecine/Utérus_artificiel/Utérus_artificiel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_artificiel</t>
+          <t>Utérus_artificiel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un utérus artificiel, appelé aussi matrice artificielle, est un dispositif théorique d'ectogénèse qui permet une grossesse extracorporelle, à savoir la croissance d'un embryon ou d'un fœtus en dehors du corps d'un organisme femelle qui mènerait normalement cet embryon ou fœtus à terme. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_artificiel</t>
+          <t>Utérus_artificiel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée d'utérus artificiel est pour la première fois formulée par le biologiste britannique J.B.S. Haldane, dans les années 1920. À la fin des années 1970, les premiers succès britanniques de fécondation in vitro et d'obtention de « bébés éprouvettes » permettent de dissocier les deux fonctions maternelles (maternité ovarienne et maternité utérine) qui étaient jusque-là réunies en une seule personne, et d'envisager cette technique d'ectogénèse susceptible d'entraîner des bouleversements psychologiques et anthropologiques au cours du XXIe siècle[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée d'utérus artificiel est pour la première fois formulée par le biologiste britannique J.B.S. Haldane, dans les années 1920. À la fin des années 1970, les premiers succès britanniques de fécondation in vitro et d'obtention de « bébés éprouvettes » permettent de dissocier les deux fonctions maternelles (maternité ovarienne et maternité utérine) qui étaient jusque-là réunies en une seule personne, et d'envisager cette technique d'ectogénèse susceptible d'entraîner des bouleversements psychologiques et anthropologiques au cours du XXIe siècle.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_artificiel</t>
+          <t>Utérus_artificiel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un utérus artificiel, comme un organe de substitution (ex. : le rein artificiel), pourrait être utilisé pour aider les femmes dont l'utérus est endommagé ou malade à développer le fœtus à terme. Il a également la possibilité de déplacer le seuil de viabilité des prématurés à un stade beaucoup plus précoce de la grossesse. Ainsi des agneaux issus d'embryons de 4 mois ont réussi à naître d'un tel dispositif, en avril 2017[4]. La gestation chez l'agneau ne dure que 5 mois[5] mais à 4 mois, le développement de ses poumons est équivalent à celui d'un fœtus humain "prématuré extrême" de 23 à 24 semaines. À cette date (avril 2017), les chercheurs indiquaient cependant que si les résultats étaient extrêmement encourageants (chute de mortalité de 90 à 10%, chute des séquelles de 90 à 30%), ils devaient encore être approfondis : si le développement des poumons de l'agneau était proche de celui du nourrisson, celui de son cerveau différait sensiblement (plus développé) et ne permettait pas d'évaluer la diminution du risque d'hémorragie intra-crânienne, l'une des principales complications chez les très grands prématurés. Les chercheurs indiquaient penser pouvoir effectuer les premiers essais chez l'homme entre 2020 et 2022.[Passage à actualiser]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un utérus artificiel, comme un organe de substitution (ex. : le rein artificiel), pourrait être utilisé pour aider les femmes dont l'utérus est endommagé ou malade à développer le fœtus à terme. Il a également la possibilité de déplacer le seuil de viabilité des prématurés à un stade beaucoup plus précoce de la grossesse. Ainsi des agneaux issus d'embryons de 4 mois ont réussi à naître d'un tel dispositif, en avril 2017. La gestation chez l'agneau ne dure que 5 mois mais à 4 mois, le développement de ses poumons est équivalent à celui d'un fœtus humain "prématuré extrême" de 23 à 24 semaines. À cette date (avril 2017), les chercheurs indiquaient cependant que si les résultats étaient extrêmement encourageants (chute de mortalité de 90 à 10%, chute des séquelles de 90 à 30%), ils devaient encore être approfondis : si le développement des poumons de l'agneau était proche de celui du nourrisson, celui de son cerveau différait sensiblement (plus développé) et ne permettait pas d'évaluer la diminution du risque d'hémorragie intra-crânienne, l'une des principales complications chez les très grands prématurés. Les chercheurs indiquaient penser pouvoir effectuer les premiers essais chez l'homme entre 2020 et 2022.[Passage à actualiser]
 </t>
         </is>
       </c>
